--- a/src/test/resources/excel/装备.xlsx
+++ b/src/test/resources/excel/装备.xlsx
@@ -7,15 +7,15 @@
     <workbookView windowWidth="28800" windowHeight="11660" tabRatio="826" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="#武器" sheetId="2" r:id="rId1"/>
-    <sheet name="#衣服" sheetId="3" r:id="rId2"/>
+    <sheet name="武器" sheetId="2" r:id="rId1"/>
+    <sheet name="衣服" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -29,13 +29,7 @@
     <t>防御</t>
   </si>
   <si>
-    <t>knife</t>
-  </si>
-  <si>
     <t>刀</t>
-  </si>
-  <si>
-    <t>sword</t>
   </si>
   <si>
     <t>剑</t>
@@ -47,13 +41,7 @@
     <t>#endif</t>
   </si>
   <si>
-    <t>gown</t>
-  </si>
-  <si>
     <t>布衣</t>
-  </si>
-  <si>
-    <t>armor</t>
   </si>
   <si>
     <t>铠甲</t>
@@ -64,10 +52,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -100,16 +88,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,14 +112,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,62 +126,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,6 +160,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -225,6 +192,27 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,24 +227,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -269,157 +371,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,22 +434,57 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,52 +504,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,145 +523,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1011,7 +999,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1035,11 +1023,11 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
       <c r="C2">
         <v>30</v>
@@ -1049,11 +1037,11 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>6</v>
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>40</v>
@@ -1064,15 +1052,15 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:4">
-      <c r="A5" t="s">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
       </c>
       <c r="C5">
         <v>888</v>
@@ -1082,11 +1070,11 @@
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:4">
-      <c r="A6" t="s">
-        <v>6</v>
+      <c r="A6">
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>999</v>
@@ -1097,7 +1085,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1112,7 +1100,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1135,11 +1123,11 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>10</v>
+      <c r="A2">
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1149,11 +1137,11 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>12</v>
+      <c r="A3">
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>0</v>

--- a/src/test/resources/excel/装备.xlsx
+++ b/src/test/resources/excel/装备.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -29,9 +29,15 @@
     <t>防御</t>
   </si>
   <si>
+    <t>Knife</t>
+  </si>
+  <si>
     <t>刀</t>
   </si>
   <si>
+    <t>Sword</t>
+  </si>
+  <si>
     <t>剑</t>
   </si>
   <si>
@@ -41,7 +47,13 @@
     <t>#endif</t>
   </si>
   <si>
+    <t>Equip1</t>
+  </si>
+  <si>
     <t>布衣</t>
+  </si>
+  <si>
+    <t>Equip2</t>
   </si>
   <si>
     <t>铠甲</t>
@@ -52,8 +64,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -88,6 +100,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -97,7 +116,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,8 +130,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,17 +154,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,47 +215,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,13 +225,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,19 +245,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,157 +401,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,6 +475,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -490,21 +517,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -523,142 +535,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -999,7 +1011,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1023,11 +1035,11 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>30</v>
@@ -1037,11 +1049,11 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>40</v>
@@ -1052,15 +1064,15 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:4">
-      <c r="A5">
-        <v>1</v>
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>888</v>
@@ -1070,11 +1082,11 @@
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:4">
-      <c r="A6">
-        <v>2</v>
+      <c r="A6" t="s">
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>999</v>
@@ -1085,7 +1097,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1100,7 +1112,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1123,11 +1135,11 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
-        <v>3</v>
+      <c r="A2" t="s">
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1137,11 +1149,11 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3">
-        <v>4</v>
+      <c r="A3" t="s">
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>0</v>
